--- a/Term Project/Phase 3/insert script/expertise.xlsx
+++ b/Term Project/Phase 3/insert script/expertise.xlsx
@@ -206,10 +206,10 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -240,7 +240,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1142</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,7 +248,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1145</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,7 +256,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1149</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -264,7 +264,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1152</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -272,7 +272,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1153</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,7 +280,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1154</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
